--- a/comparisons.xlsx
+++ b/comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amberbellou/Documents/GitHub/HW3_ahp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD508D17-E8C0-1340-A2F1-2B9EE318E674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5734EFCE-9852-294C-8646-8230B8D31EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" activeTab="7" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="music_classes" sheetId="7" r:id="rId7"/>
     <sheet name="final_scoreSchool_x0009_Learning_x0009_Frie" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
   <si>
     <t>A</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>Final Score</t>
+  </si>
+  <si>
+    <t>music_classes</t>
+  </si>
+  <si>
+    <t>college_prep</t>
+  </si>
+  <si>
+    <t>vocational_trng</t>
+  </si>
+  <si>
+    <t>school_life</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>learning</t>
   </si>
 </sst>
 </file>
@@ -475,167 +493,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3843411-907B-4840-B30B-AC77C3E9F4F0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.1429</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="F7">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.1429</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.16669999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.33329999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
@@ -790,7 +809,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -859,19 +878,20 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1067,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D34B72-84FD-884B-A810-E4E462F52217}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/comparisons.xlsx
+++ b/comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amberbellou/Documents/GitHub/HW3_ahp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5734EFCE-9852-294C-8646-8230B8D31EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D5011-83F2-D84A-9889-494909A8D905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="28800" windowHeight="16600" activeTab="7" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -52,30 +52,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>Learning</t>
-  </si>
-  <si>
-    <t>Friends</t>
-  </si>
-  <si>
-    <t>School Life</t>
-  </si>
-  <si>
-    <t>Vocational Trng</t>
-  </si>
-  <si>
-    <t>College Prep</t>
-  </si>
-  <si>
-    <t>Music Classes</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Final Score</t>
   </si>
   <si>
     <t>music_classes</t>
@@ -94,6 +70,15 @@
   </si>
   <si>
     <t>learning</t>
+  </si>
+  <si>
+    <t>final_score</t>
+  </si>
+  <si>
+    <t>coational_trng</t>
+  </si>
+  <si>
+    <t>school</t>
   </si>
 </sst>
 </file>
@@ -493,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3843411-907B-4840-B30B-AC77C3E9F4F0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -502,27 +487,27 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -545,7 +530,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -568,7 +553,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.33329999999999999</v>
@@ -591,7 +576,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -614,7 +599,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0.33329999999999999</v>
@@ -637,7 +622,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0.25</v>
@@ -1087,36 +1072,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D34B72-84FD-884B-A810-E4E462F52217}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/comparisons.xlsx
+++ b/comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amberbellou/Documents/GitHub/HW3_ahp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D5011-83F2-D84A-9889-494909A8D905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001FEB14-32C5-584A-B015-94808B76A93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="28800" windowHeight="16600" activeTab="7" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
+    <workbookView xWindow="-40" yWindow="500" windowWidth="28800" windowHeight="16600" activeTab="6" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="vocational_trng" sheetId="5" r:id="rId5"/>
     <sheet name="college_prep" sheetId="6" r:id="rId6"/>
     <sheet name="music_classes" sheetId="7" r:id="rId7"/>
-    <sheet name="final_scoreSchool_x0009_Learning_x0009_Frie" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
   <si>
     <t>A</t>
   </si>
@@ -70,15 +69,6 @@
   </si>
   <si>
     <t>learning</t>
-  </si>
-  <si>
-    <t>final_score</t>
-  </si>
-  <si>
-    <t>coational_trng</t>
-  </si>
-  <si>
-    <t>school</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B9E0E1-CAF0-D348-8EA0-DB4751EA0391}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1066,126 +1056,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D34B72-84FD-884B-A810-E4E462F52217}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="H2" s="2">
-        <f>(0.32*B2)+(0.14*C2)+(0.03*D2)+(0.13*E2)+(0.24*F2)+(0.14*G2)</f>
-        <v>0.36760000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="H3" s="2">
-        <f>(0.32*B3)+(0.14*C3)+(0.03*D3)+(0.13*E3)+(0.24*F3)+(0.14*G3)</f>
-        <v>0.37679999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.46</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="H4" s="2">
-        <f>(0.32*B4)+(0.14*C4)+(0.03*D4)+(0.13*E4)+(0.24*F4)+(0.14*G4)</f>
-        <v>0.25290000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/comparisons.xlsx
+++ b/comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amberbellou/Documents/GitHub/HW3_ahp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001FEB14-32C5-584A-B015-94808B76A93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BB194A-31DF-F742-9BE2-D551A8C36A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="500" windowWidth="28800" windowHeight="16600" activeTab="6" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
+    <workbookView xWindow="1060" yWindow="4720" windowWidth="28800" windowHeight="16600" activeTab="5" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria" sheetId="1" r:id="rId1"/>
@@ -784,7 +784,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A5EB79-79BC-7648-9EE3-DA3E8D9DFADE}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -990,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B9E0E1-CAF0-D348-8EA0-DB4751EA0391}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/comparisons.xlsx
+++ b/comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amberbellou/Documents/GitHub/HW3_ahp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BB194A-31DF-F742-9BE2-D551A8C36A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3708C49F-084B-514C-93EC-5647C5CCFE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="4720" windowWidth="28800" windowHeight="16600" activeTab="5" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
+    <workbookView xWindow="420" yWindow="4800" windowWidth="28800" windowHeight="16600" activeTab="3" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria" sheetId="1" r:id="rId1"/>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07D7448-6594-DF42-A8D0-DA0A594F0420}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A5EB79-79BC-7648-9EE3-DA3E8D9DFADE}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/comparisons.xlsx
+++ b/comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amberbellou/Documents/GitHub/HW3_ahp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3708C49F-084B-514C-93EC-5647C5CCFE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77C93730-8870-064E-9800-AD960A32536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="4800" windowWidth="28800" windowHeight="16600" activeTab="3" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
+    <workbookView xWindow="4720" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria" sheetId="1" r:id="rId1"/>
@@ -127,11 +127,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3843411-907B-4840-B30B-AC77C3E9F4F0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,22 +501,22 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>4</v>
       </c>
     </row>
@@ -522,22 +524,22 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>0.25</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>0.2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -545,22 +547,22 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0.1429</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>0.16669999999999999</v>
       </c>
     </row>
@@ -568,22 +570,22 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
         <v>0.33329999999999999</v>
       </c>
     </row>
@@ -591,22 +593,22 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
         <v>3</v>
       </c>
     </row>
@@ -614,22 +616,22 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>0.25</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>1</v>
       </c>
     </row>
@@ -643,7 +645,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D4" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,14 +666,14 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <f>1/2</f>
         <v>0.5</v>
       </c>
@@ -680,13 +682,13 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>3</v>
       </c>
     </row>
@@ -694,14 +696,14 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -783,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07D7448-6594-DF42-A8D0-DA0A594F0420}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +855,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D4" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,13 +876,13 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>7</v>
       </c>
     </row>
@@ -888,13 +890,13 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>0.111111</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -902,13 +904,13 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>0.14285700000000001</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -991,7 +993,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,13 +1017,13 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1029,13 +1031,13 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>0.2</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.33329999999999999</v>
       </c>
     </row>
@@ -1043,13 +1045,13 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>0.25</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
     </row>

--- a/comparisons.xlsx
+++ b/comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amberbellou/Documents/GitHub/HW3_ahp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77C93730-8870-064E-9800-AD960A32536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E31B0E-5E4B-FB40-9852-AA34437264E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
+    <workbookView xWindow="640" yWindow="6680" windowWidth="28800" windowHeight="16600" activeTab="4" xr2:uid="{66754236-CA37-144F-A0E5-D13318BA70D4}"/>
   </bookViews>
   <sheets>
     <sheet name="criteria" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +106,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,13 +133,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3843411-907B-4840-B30B-AC77C3E9F4F0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -854,21 +861,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BABBF67-AEB7-7445-A220-DDAB4B9F9891}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="B2:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -883,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5">
-        <v>7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -891,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>0.111111</v>
+        <v>0.11</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -905,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>0.14285700000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="C4" s="5">
         <v>5</v>
